--- a/data/survey.xlsx
+++ b/data/survey.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="CoE IE Questions Database ec23b" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="294">
   <si>
     <t>Question</t>
   </si>
@@ -79,10 +79,10 @@
   </si>
   <si>
     <t>- Up to 6 months
-- 6-12 months
-- 1-2 years
-- 2-3 years
-- 3-5 years
+- 6 to 12 months
+- 1 to 2 years
+- 2 to 3 years
+- 3 to 5 years
 - 5+ years</t>
   </si>
   <si>
@@ -130,11 +130,11 @@
 with me?</t>
   </si>
   <si>
-    <t>- 18-24
-- 25-34
-- 35-44
-- 45-54
-- 55-64,
+    <t>- 18 to 24
+- 25 to 34
+- 35 to 44
+- 45 to 54
+- 55 to 64,
 - Above 64
 - Don’t know / Prefer not to say</t>
   </si>
@@ -178,7 +178,7 @@
     <t>Required</t>
   </si>
   <si>
-    <t>Which activities from the following did you spend any time on [in XX time period]? (Select all that apply)</t>
+    <t>Which activities from the following did you spend any time on [in XX time period]? (Select all that apply)kik</t>
   </si>
   <si>
     <t>- Accounting (e.g., bookkeeping, loans)
@@ -379,6 +379,16 @@
     <t>There are different reasons for people not having these products. Why don’t YOU have it?</t>
   </si>
   <si>
+    <t>- Can't afford it
+- Don't know enough about it
+- Don't need it
+- Don't trust it
+- Someone else has it
+- No specific reason
+- Other (please specify)
+- Don't know / Prefer not to say</t>
+  </si>
+  <si>
     <t>Challenges with products/services, Insurance</t>
   </si>
   <si>
@@ -527,7 +537,7 @@
     <t>There are many reasons why people don’t have a bank account. Can you tell me why you don’t have a bank account? (Select all that apply)</t>
   </si>
   <si>
-    <t>- Bank accounts are too expensive (fees, minimum balance)
+    <t>- Bank accounts are too expensive (e.g., fees, minimum balance)
 - Banks are too far or hard to access
 - Don't have required documents or ID
 - Don't need a bank account
@@ -569,7 +579,7 @@
   <si>
     <t>[Adjust amounts] 
 - Less than XXX
-- XXX - XXX
+- XXX to XXX
 - …
 - More than XXX
 - Don’t know
@@ -669,11 +679,10 @@
     <t>- Bank transfers
 - Cards (credit/debit)
 - Cash
-- Digital payment apps (e.g., PayPal)
+- Digital payment apps (e.g., PayPal [insert locally relevant options])
 - Mobile money services
 - Mobile wallet payments
 - QR code payments
-- We don't accept payments yet
 - Other (please specify)
 - Don't know / Prefer not to say</t>
   </si>
@@ -824,8 +833,8 @@
   <si>
     <t>- Costs actually increased
 - No change in costs
-- Small decrease in costs (1-10%)
-- Medium decrease in costs (11-25%)
+- Small decrease in costs (1 to 10%)
+- Medium decrease in costs (11 to 25%)
 - Large decrease in costs (more than 25%)
 - We don't use digital tools
 - Don't know / Prefer not to say</t>
@@ -841,6 +850,13 @@
   </si>
   <si>
     <t>How much did you lose due to this?</t>
+  </si>
+  <si>
+    <t>[Insert context appropriate range]
+- Less than XXX
+- XXX to XXX
+- …
+- More than XXX</t>
   </si>
   <si>
     <t>Resilience</t>
@@ -992,10 +1008,10 @@
   </si>
   <si>
     <t>- Less than a week
-- 1-2 weeks
-- 2-4 weeks
-- 1-3 months
-- 3-12 months
+- 1 to 2 weeks
+- 2 to 4 weeks
+- 1 to 3 months
+- 3 to 12 months
 - More than a year
 - Don't know / Prefer not to say</t>
   </si>
@@ -1022,10 +1038,10 @@
   </si>
   <si>
     <t>- Less than a week
-- 1-2 weeks
-- 2-4 weeks
-- 1-3 months
-- 3-12 months
+- 1 to 2 weeks
+- 2 to 4 weeks
+- 1 to 3 months
+- 3 to 12 months
 - More than a year
 - Still affecting us
 - Don't know / Prefer not to say</t>
@@ -1058,7 +1074,7 @@
     <t>Closure</t>
   </si>
   <si>
-    <t> How do you compensate or pay yourself as the firm owner? (Select all that apply)</t>
+    <t>How do you compensate or pay yourself as the firm owner? (Select all that apply)</t>
   </si>
   <si>
     <t>- Fixed salary
@@ -1109,8 +1125,8 @@
   </si>
   <si>
     <t>- Slight growth (up to 10%)
-- Moderate growth (11-20%)
-- Significant growth (21-30%)
+- Moderate growth (11 to 20%)
+- Significant growth (21 to 30%)
 - Substantial growth (over 30%)
 - No growth
 - Experienced a decline
@@ -1175,9 +1191,10 @@
     <t>Since this time [XX] years ago, have you introduced new products or services to offer your customers?</t>
   </si>
   <si>
-    <t>1. Yes, more
-2. No, fewer
-3. About the same</t>
+    <t>- Yes, more
+- No, fewer
+- About the same
+- Don’t know / Prefer not to say</t>
   </si>
   <si>
     <t>Expand product/service line</t>
@@ -1280,9 +1297,9 @@
   <si>
     <t>ROWS:
 - Extremely valuable (10/10)
-- Very valuable (7-9/10)
-- Moderately valuable (4-6/10)
-- Slightly valuable (1-3/10)
+- Very valuable (7 to 9)
+- Moderately valuable (4 to 6)
+- Slightly valuable (1 to 3)
 - Not valuable at all (0/10)
 - Don't know / Prefer not to say
 COLUMNS:
@@ -1773,7 +1790,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -2159,6 +2176,9 @@
       <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>42</v>
       </c>
@@ -2166,13 +2186,13 @@
         <v>79</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>13</v>
@@ -2180,10 +2200,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>42</v>
@@ -2192,13 +2212,13 @@
         <v>79</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>13</v>
@@ -2206,10 +2226,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>42</v>
@@ -2218,7 +2238,7 @@
         <v>79</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>13</v>
@@ -2226,10 +2246,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
@@ -2238,13 +2258,13 @@
         <v>79</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>13</v>
@@ -2252,10 +2272,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>42</v>
@@ -2264,13 +2284,13 @@
         <v>79</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>13</v>
@@ -2278,10 +2298,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>42</v>
@@ -2290,13 +2310,13 @@
         <v>79</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>39</v>
@@ -2304,10 +2324,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>42</v>
@@ -2316,7 +2336,7 @@
         <v>79</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>39</v>
@@ -2324,10 +2344,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>42</v>
@@ -2336,13 +2356,13 @@
         <v>79</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>39</v>
@@ -2350,10 +2370,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>19</v>
@@ -2368,7 +2388,7 @@
         <v>47</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>13</v>
@@ -2376,10 +2396,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>19</v>
@@ -2388,7 +2408,7 @@
         <v>79</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>13</v>
@@ -2396,10 +2416,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>42</v>
@@ -2408,7 +2428,7 @@
         <v>79</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>13</v>
@@ -2416,10 +2436,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>19</v>
@@ -2428,13 +2448,13 @@
         <v>79</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>13</v>
@@ -2442,10 +2462,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
@@ -2454,7 +2474,7 @@
         <v>79</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>13</v>
@@ -2462,25 +2482,25 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>39</v>
@@ -2488,25 +2508,25 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>13</v>
@@ -2514,10 +2534,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>10</v>
@@ -2526,7 +2546,7 @@
         <v>79</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>39</v>
@@ -2534,10 +2554,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>42</v>
@@ -2546,7 +2566,7 @@
         <v>79</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>13</v>
@@ -2554,10 +2574,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>19</v>
@@ -2572,7 +2592,7 @@
         <v>52</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>39</v>
@@ -2580,25 +2600,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>13</v>
@@ -2606,10 +2626,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>42</v>
@@ -2618,7 +2638,7 @@
         <v>79</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>13</v>
@@ -2626,10 +2646,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>42</v>
@@ -2638,7 +2658,7 @@
         <v>79</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>13</v>
@@ -2646,22 +2666,22 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>13</v>
@@ -2669,7 +2689,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>55</v>
@@ -2678,16 +2698,16 @@
         <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>13</v>
@@ -2695,25 +2715,25 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>13</v>
@@ -2721,7 +2741,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>55</v>
@@ -2730,16 +2750,16 @@
         <v>10</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>13</v>
@@ -2747,19 +2767,19 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>13</v>
@@ -2767,19 +2787,19 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>13</v>
@@ -2787,19 +2807,19 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>13</v>
@@ -2807,19 +2827,19 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>39</v>
@@ -2827,19 +2847,19 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>39</v>
@@ -2847,19 +2867,19 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>13</v>
@@ -2867,19 +2887,19 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>13</v>
@@ -2887,19 +2907,19 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>13</v>
@@ -2907,19 +2927,19 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>13</v>
@@ -2927,7 +2947,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>55</v>
@@ -2936,10 +2956,10 @@
         <v>10</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>39</v>
@@ -2947,25 +2967,25 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>13</v>
@@ -2973,7 +2993,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>55</v>
@@ -2982,10 +3002,10 @@
         <v>10</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>39</v>
@@ -2993,22 +3013,25 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>13</v>
@@ -3016,7 +3039,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>55</v>
@@ -3025,16 +3048,16 @@
         <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>39</v>
@@ -3042,25 +3065,25 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>39</v>
@@ -3068,19 +3091,19 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>13</v>
@@ -3088,25 +3111,25 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>13</v>
@@ -3114,25 +3137,25 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>39</v>
@@ -3140,7 +3163,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>55</v>
@@ -3149,10 +3172,10 @@
         <v>10</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>39</v>
@@ -3160,19 +3183,19 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>13</v>
@@ -3180,25 +3203,25 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>13</v>
@@ -3206,19 +3229,19 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>13</v>
@@ -3226,19 +3249,19 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>39</v>
@@ -3246,16 +3269,16 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>46</v>
@@ -3266,25 +3289,25 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>13</v>
@@ -3292,25 +3315,25 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>39</v>
@@ -3318,25 +3341,25 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>39</v>
@@ -3344,19 +3367,19 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>13</v>
@@ -3364,25 +3387,25 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>13</v>
@@ -3390,16 +3413,16 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>38</v>
@@ -3410,16 +3433,16 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>34</v>
@@ -3428,7 +3451,7 @@
         <v>47</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>13</v>
@@ -3436,16 +3459,16 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>34</v>
@@ -3454,7 +3477,7 @@
         <v>47</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>13</v>
@@ -3462,25 +3485,25 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>13</v>
@@ -3488,19 +3511,19 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>13</v>
@@ -3508,16 +3531,16 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>13</v>
@@ -3525,25 +3548,25 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>13</v>
@@ -3551,25 +3574,25 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>13</v>
@@ -3577,19 +3600,19 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>13</v>
@@ -3597,19 +3620,19 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>39</v>
@@ -3617,19 +3640,19 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>13</v>
@@ -3637,22 +3660,25 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>13</v>
@@ -3660,7 +3686,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>55</v>
@@ -3669,10 +3695,10 @@
         <v>10</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>13</v>
@@ -3680,22 +3706,22 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>39</v>
@@ -3703,22 +3729,22 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>39</v>
@@ -3726,22 +3752,22 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>39</v>
@@ -3749,25 +3775,25 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>39</v>
@@ -3775,19 +3801,19 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>13</v>
@@ -3795,19 +3821,19 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>13</v>
@@ -3815,19 +3841,19 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>13</v>
@@ -3835,19 +3861,19 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>13</v>
@@ -3855,16 +3881,16 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>13</v>
@@ -3872,19 +3898,19 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>39</v>
@@ -3892,7 +3918,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>55</v>
@@ -3901,16 +3927,16 @@
         <v>10</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>39</v>
@@ -3918,16 +3944,16 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>39</v>
@@ -3935,19 +3961,19 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>13</v>
@@ -3955,22 +3981,22 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>13</v>
@@ -3978,16 +4004,16 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>13</v>
@@ -3995,19 +4021,19 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>13</v>
@@ -4015,19 +4041,19 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>13</v>

--- a/data/survey.xlsx
+++ b/data/survey.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="335">
   <si>
     <t>Question</t>
   </si>
@@ -136,7 +136,7 @@
 - Worked extra hours
 - Sold business assets
 - Reduced household expenditures
-- Other (specify)
+- Other (please specify)
 - Don't know / Prefer not to say</t>
   </si>
   <si>
@@ -323,21 +323,28 @@
     <t>Work creation</t>
   </si>
   <si>
-    <t>Over the last [XX] months, did you have a written budget, which states how much is owed or should be spent each month on rent, electricity, equipment maintenance, transport, advertising, and other indirect costs to business?</t>
+    <t>In the last [XX] months, have you kept track of your regular business expenses (like rent, utilities, supplies, or transportation) in any kind of budget or spending plan? (Select all that apply)</t>
+  </si>
+  <si>
+    <t>- Yes, I keep a detailed written/digital budget
+- Yes, I track expenses but not in a formal budget
+- No, I don't currently track expenses
+- Other (please specify)
+- Don't know / Prefer not to say</t>
+  </si>
+  <si>
+    <t>Adoption of business practices</t>
+  </si>
+  <si>
+    <t>Financial management</t>
+  </si>
+  <si>
+    <t>Over the last [XX] months, have you made use of digital social media for marketing purposes? (e.g., Facebook, WhatsApp, Twitter, LinkedIn)</t>
   </si>
   <si>
     <t>- Yes
 - No
 - Don’t know / Prefer not to say</t>
-  </si>
-  <si>
-    <t>Adoption of business practices</t>
-  </si>
-  <si>
-    <t>Financial management</t>
-  </si>
-  <si>
-    <t>Over the last [XX] months, have you made use of digital social media for marketing purposes? (e.g., Facebook, WhatsApp, Twitter, LinkedIn)</t>
   </si>
   <si>
     <t>Marketing</t>
@@ -402,7 +409,7 @@
 - Cloud storage
 - Accounting software
 - Social media/online advertising
-- Other (specify)
+- Other (please specify)
 - None, our business does not use any digital technology
 - Don't know / Prefer not to say</t>
   </si>
@@ -513,7 +520,7 @@
 - Don't know / Prefer not to say</t>
   </si>
   <si>
-    <t>Over the last [XX] months, since [using XX company/services], have you tried to gather customer feedback through an app or website (e.g. Facebook, WhatsApp, Grab Food, or GrabMart) [inert local examples]?</t>
+    <t>Over the last [XX] months, since [using Company/services], have you tried to gather customer feedback through an app or website (e.g. Facebook, WhatsApp, [insert local examples])?</t>
   </si>
   <si>
     <t>Market research</t>
@@ -594,7 +601,7 @@
 - Don't know / Prefer not to say</t>
   </si>
   <si>
-    <t>How has your use of these digital tools or services changed over the last [XX] months</t>
+    <t>How has your use of these digital tools or services changed over the last [XX] months?</t>
   </si>
   <si>
     <t>ROWS:
@@ -666,8 +673,8 @@
     <t>Which of the following best describes your present role in your business?</t>
   </si>
   <si>
-    <t>- Self-employed/own or co own business only
-- Employed and run business for additional income
+    <t>- Self employed / own or co own business only
+- Employed elsewhere and run business for additional income
 - Had a business but closed it
 - Haven't started my business yet
 - Prefer not to say</t>
@@ -770,11 +777,11 @@
   </si>
   <si>
     <t>- Large increase (over 25%)
-- Medium increase (11-25%)
-- Small increase (1-10%)
+- Medium increase (11 to 25%)
+- Small increase (1 to 10%)
 - No change
-- Small decrease (1-10%)
-- Medium decrease (11-25%)
+- Small decrease (1 to 10%)
+- Medium decrease (11 to 25%)
 - Large decrease (over 25%)
 - Don't know / Prefer not to say</t>
   </si>
@@ -860,7 +867,7 @@
 - Mentorship
 - Entrepreneurial community
 - Work/gig opportunities
-- Peer-to-peer business training
+- Peer to peer business training
 - [Add relevant components]</t>
   </si>
   <si>
@@ -1082,6 +1089,7 @@
 - Theft or fraud
 - Employee injury/illness
 - Other (please specify)
+- No, none
 - Don’t know / Prefer not to say</t>
   </si>
   <si>
@@ -1321,14 +1329,33 @@
     <t>Do you discuss your business operations and/or plans with other people? (https://www.notion.so/Do-you-discuss-your-business-operations-and-or-plans-with-other-people-143d10e1ec8780cc8012e37dde7d300a?pvs=21), [If discusses] Do you take their advice? (https://www.notion.so/If-discusses-Do-you-take-their-advice-143d10e1ec8780279f10fc47e39e184c?pvs=21)</t>
   </si>
   <si>
+    <t>How often does your business set aside money for unexpected expenses or emergencies? (Select one)</t>
+  </si>
+  <si>
+    <t>- Every week
+- Multiple times per month
+- Once or twice per month
+- Once every few months
+- Never, I can't afford to save any money
+- Never, I don't need to save for emergencies
+- Other (please specify)
+- Don't know / Prefer not to say</t>
+  </si>
+  <si>
+    <t>Adoption of business practices, Capabilities, Resilience</t>
+  </si>
+  <si>
+    <t>Financial capabilities, Financial management</t>
+  </si>
+  <si>
     <t>How do you compensate or pay yourself as the firm owner? (Select all that apply)</t>
   </si>
   <si>
     <t>- Fixed salary
 - Performance bonus
 - Percentage of profit
-- In-kind compensation
-- As-needed withdrawals
+- In kind compensation
+- As needed withdrawals
 - Other (specify)
 - Don't know / Prefer not to say</t>
   </si>
@@ -1389,7 +1416,7 @@
 - Open new location
 - Add new products/services
 - Hire more staff
-- None (Maintain current status)
+- None (maintain current status)
 - Other (please specify)
 - Don't know / Prefer not to say</t>
   </si>
@@ -1431,63 +1458,21 @@
 - Don't know / Prefer not to say</t>
   </si>
   <si>
-    <t>Do you keep financial records? If so, in which forms do you keep financial records? (Select all that apply)</t>
-  </si>
-  <si>
-    <t>- Basic notes or notebooks
-- Box or folder of receipts and bills
-- Computer spreadsheets (e.g., Excel)
-- Mobile phone apps or notes
-- Paper ledger or account books
-- Professional accounting software
-- We don't systematically keep financial records
+    <t>Which types of insurance or financial protection do you currently have?</t>
+  </si>
+  <si>
+    <t>- Business property insurance
+- Health/medical insurance
+- Life insurance
+- Motor vehicle insurance
+- Personal accident insurance
+- Pension/retirement plan
+- We don't have any insurance
 - Other (please specify)
 - Don't know / Prefer not to say</t>
   </si>
   <si>
-    <t>[If no financial record keeping] Why don't you keep financial records? (https://www.notion.so/If-no-financial-record-keeping-Why-don-t-you-keep-financial-records-143d10e1ec87805b8be6dccff2367215?pvs=21), Why do you keep your financial records in that way? (https://www.notion.so/Why-do-you-keep-your-financial-records-in-that-way-143d10e1ec87808abb2bf476177c0af3?pvs=21)</t>
-  </si>
-  <si>
-    <t>Why do you keep your financial records in that way?</t>
-  </si>
-  <si>
-    <t>Do you keep financial records? If so, in which forms do you keep financial records? (Select all that apply) (https://www.notion.so/Do-you-keep-financial-records-If-so-in-which-forms-do-you-keep-financial-records-Select-all-that-143d10e1ec8780bc984cd4d70b3fc317?pvs=21)</t>
-  </si>
-  <si>
-    <t>[If no financial record keeping] Why don't you keep financial records?</t>
-  </si>
-  <si>
-    <t>In the last [XX] months, where have you borrowed money or gotten credit from? (Select all that apply)</t>
-  </si>
-  <si>
-    <t>- Bank
-- Family or friends
-- Government program
-- Informal lender
-- Microfinance organization
-- Savings group
-- Shop/supplier credit
-- We haven't borrowed
-- Other (please specify)
-- Don't know / Prefer not to say</t>
-  </si>
-  <si>
-    <t>Were you given a written contract? (https://www.notion.so/Were-you-given-a-written-contract-149d10e1ec87801085fbf210d2d3d335?pvs=21)</t>
-  </si>
-  <si>
-    <t>Were you given a written contract?</t>
-  </si>
-  <si>
-    <t>In the last [XX] months, where have you borrowed money or gotten credit from? (Select all that apply) (https://www.notion.so/In-the-last-XX-months-where-have-you-borrowed-money-or-gotten-credit-from-Select-all-that-apply-149d10e1ec8780b78057e05c32016bae?pvs=21), Was the contract in the language you understand (even if you cannot read that language)? (https://www.notion.so/Was-the-contract-in-the-language-you-understand-even-if-you-cannot-read-that-language-149d10e1ec87800c8694d73dbba732ca?pvs=21), Did you read the contract or did someone explain it to you before you signed it? (https://www.notion.so/Did-you-read-the-contract-or-did-someone-explain-it-to-you-before-you-signed-it-149d10e1ec878059be28e2a0705d5ea3?pvs=21), Did you understand the terms of the contract? (https://www.notion.so/Did-you-understand-the-terms-of-the-contract-149d10e1ec8780fd8e2dde102fbd1d90?pvs=21)</t>
-  </si>
-  <si>
-    <t>Did you understand the terms of the contract?</t>
-  </si>
-  <si>
-    <t>- Yes
-- No
-- Don’t know / not sure
-- Prefer not to say</t>
+    <t>People have these products we have just talked about for different reasons, why do you have it? (https://www.notion.so/People-have-these-products-we-have-just-talked-about-for-different-reasons-why-do-you-have-it-14ad10e1ec8780098aeac0d951f43eed?pvs=21), [If no insurance] There are different reasons for people not having these products. Why don’t you personally have them? (Select all that apply) (https://www.notion.so/If-no-insurance-There-are-different-reasons-for-people-not-having-these-products-Why-don-t-you-per-14ad10e1ec878052806dd6a3a7f5ca71?pvs=21)</t>
   </si>
   <si>
     <t>[If no loan taken out] Why haven't you borrowed money for your business? (Select all that apply)</t>
@@ -1506,21 +1491,100 @@
 - Don't know / Prefer not to say</t>
   </si>
   <si>
-    <t>Which types of insurance or financial protection do you currently have?</t>
-  </si>
-  <si>
-    <t>- Business property insurance
-- Health/medical insurance
-- Life insurance
-- Motor vehicle insurance
-- Personal accident insurance
-- Pension/retirement plan
-- We don't have any insurance
+    <t>Did you understand the terms of the contract?</t>
+  </si>
+  <si>
+    <t>- Yes
+- No
+- Don’t know / not sure
+- Prefer not to say</t>
+  </si>
+  <si>
+    <t>Were you given a written contract? (https://www.notion.so/Were-you-given-a-written-contract-149d10e1ec87801085fbf210d2d3d335?pvs=21)</t>
+  </si>
+  <si>
+    <t>Were you given a written contract?</t>
+  </si>
+  <si>
+    <t>In the last [XX] months, where have you borrowed money or gotten credit from? (Select all that apply) (https://www.notion.so/In-the-last-XX-months-where-have-you-borrowed-money-or-gotten-credit-from-Select-all-that-apply-149d10e1ec8780b78057e05c32016bae?pvs=21), Was the contract in the language you understand (even if you cannot read that language)? (https://www.notion.so/Was-the-contract-in-the-language-you-understand-even-if-you-cannot-read-that-language-149d10e1ec87800c8694d73dbba732ca?pvs=21), Did you read the contract or did someone explain it to you before you signed it? (https://www.notion.so/Did-you-read-the-contract-or-did-someone-explain-it-to-you-before-you-signed-it-149d10e1ec878059be28e2a0705d5ea3?pvs=21), Did you understand the terms of the contract? (https://www.notion.so/Did-you-understand-the-terms-of-the-contract-149d10e1ec8780fd8e2dde102fbd1d90?pvs=21)</t>
+  </si>
+  <si>
+    <t>[If no financial record keeping] Why don't you keep financial records?</t>
+  </si>
+  <si>
+    <t>Do you keep financial records? If so, in which forms do you keep financial records? (Select all that apply) (https://www.notion.so/Do-you-keep-financial-records-If-so-in-which-forms-do-you-keep-financial-records-Select-all-that-143d10e1ec8780bc984cd4d70b3fc317?pvs=21)</t>
+  </si>
+  <si>
+    <t>Why do you keep your financial records in that way?</t>
+  </si>
+  <si>
+    <t>Do you keep financial records? If so, in which forms do you keep financial records? (Select all that apply)</t>
+  </si>
+  <si>
+    <t>- Basic notes or notebooks
+- Box or folder of receipts and bills
+- Computer spreadsheets (e.g., Excel)
+- Mobile phone apps or notes
+- Paper ledger or account books
+- Professional accounting software
+- We don't systematically keep financial records
 - Other (please specify)
 - Don't know / Prefer not to say</t>
   </si>
   <si>
-    <t>People have these products we have just talked about for different reasons, why do you have it? (https://www.notion.so/People-have-these-products-we-have-just-talked-about-for-different-reasons-why-do-you-have-it-14ad10e1ec8780098aeac0d951f43eed?pvs=21), [If no insurance] There are different reasons for people not having these products. Why don’t you personally have them? (Select all that apply) (https://www.notion.so/If-no-insurance-There-are-different-reasons-for-people-not-having-these-products-Why-don-t-you-per-14ad10e1ec878052806dd6a3a7f5ca71?pvs=21)</t>
+    <t>[If no financial record keeping] Why don't you keep financial records? (https://www.notion.so/If-no-financial-record-keeping-Why-don-t-you-keep-financial-records-143d10e1ec87805b8be6dccff2367215?pvs=21), Why do you keep your financial records in that way? (https://www.notion.so/Why-do-you-keep-your-financial-records-in-that-way-143d10e1ec87808abb2bf476177c0af3?pvs=21)</t>
+  </si>
+  <si>
+    <t>In the last [XX] months, where have you borrowed money or gotten credit from? (Select all that apply)</t>
+  </si>
+  <si>
+    <t>- Bank
+- Family or friends
+- Government program
+- Informal lender
+- Microfinance organization
+- Savings group
+- Shop/supplier credit
+- We haven't borrowed
+- Other (please specify)
+- Don't know / Prefer not to say</t>
+  </si>
+  <si>
+    <t>What tools or services do you currently use to run your business? (Select all that apply)</t>
+  </si>
+  <si>
+    <t>- Business website
+- Social media for business
+- Business bank account
+- Business payment card
+- Digital payroll system
+- Mobile banking
+- Digital payments
+- Online tax filing
+- Other (please specify)
+- Don't know / Prefer not to say</t>
+  </si>
+  <si>
+    <t>Adoption of business practices, Adoption of products/services</t>
+  </si>
+  <si>
+    <t>Adoption of business practices, Adoption of digital marketplaces, DFS adoption, Digital tool adoption (general), Financial management, HR practices</t>
+  </si>
+  <si>
+    <t>Please select all of the following marketing practices that you have started using in your business in the last [XX] months (Select all that apply)</t>
+  </si>
+  <si>
+    <t>- Created or updated my business social media accounts (like Facebook, Instagram, TikTok)
+- Created or updated my business profile on food/goods delivery platforms
+- Created or updated my business shop on social media marketplaces
+- Paid for online or offline advertising
+- Offered special promotions or discounts to customers
+- None of the above
+- Other (please specify)
+- Don't know / Prefer not to say</t>
+  </si>
+  <si>
+    <t>Adoption of business practices, Digital tool adoption (general)</t>
   </si>
 </sst>
 </file>
@@ -1776,9 +1840,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="43.13"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -2064,8 +2125,6 @@
       <c r="E12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
@@ -2086,8 +2145,6 @@
       <c r="E13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
@@ -2108,8 +2165,6 @@
       <c r="E14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2130,8 +2185,6 @@
       <c r="E15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2152,8 +2205,6 @@
       <c r="E16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2229,7 +2280,7 @@
         <v>77</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
@@ -2238,7 +2289,7 @@
         <v>75</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>29</v>
@@ -2246,10 +2297,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>16</v>
@@ -2266,10 +2317,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>16</v>
@@ -2286,10 +2337,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>20</v>
@@ -2298,13 +2349,13 @@
         <v>62</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>29</v>
@@ -2312,25 +2363,25 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>29</v>
@@ -2338,25 +2389,25 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>13</v>
@@ -2364,25 +2415,25 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>29</v>
@@ -2390,25 +2441,25 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>13</v>
@@ -2416,25 +2467,25 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>13</v>
@@ -2442,10 +2493,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>16</v>
@@ -2454,20 +2505,18 @@
         <v>62</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+        <v>112</v>
+      </c>
       <c r="H29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>16</v>
@@ -2476,20 +2525,18 @@
         <v>62</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+        <v>112</v>
+      </c>
       <c r="H30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>10</v>
@@ -2498,13 +2545,13 @@
         <v>75</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>13</v>
@@ -2512,10 +2559,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>10</v>
@@ -2530,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>13</v>
@@ -2538,10 +2585,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>10</v>
@@ -2556,7 +2603,7 @@
         <v>27</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>13</v>
@@ -2564,10 +2611,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>16</v>
@@ -2578,18 +2625,16 @@
       <c r="E34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>16</v>
@@ -2598,7 +2643,7 @@
         <v>75</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>13</v>
@@ -2606,10 +2651,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>16</v>
@@ -2618,7 +2663,7 @@
         <v>75</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>13</v>
@@ -2626,10 +2671,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>16</v>
@@ -2640,18 +2685,16 @@
       <c r="E37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>70</v>
@@ -2660,7 +2703,7 @@
         <v>62</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>29</v>
@@ -2668,63 +2711,59 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+        <v>136</v>
+      </c>
       <c r="H39" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+        <v>140</v>
+      </c>
       <c r="H40" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>13</v>
@@ -2732,19 +2771,19 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>13</v>
@@ -2752,63 +2791,59 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+        <v>149</v>
+      </c>
       <c r="H43" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+        <v>149</v>
+      </c>
       <c r="H44" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>13</v>
@@ -2816,10 +2851,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>10</v>
@@ -2828,7 +2863,7 @@
         <v>62</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>13</v>
@@ -2836,10 +2871,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>16</v>
@@ -2854,7 +2889,7 @@
         <v>23</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>13</v>
@@ -2862,10 +2897,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>20</v>
@@ -2880,7 +2915,7 @@
         <v>27</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>13</v>
@@ -2888,10 +2923,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>20</v>
@@ -2900,20 +2935,18 @@
         <v>71</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+        <v>164</v>
+      </c>
       <c r="H49" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>20</v>
@@ -2922,20 +2955,18 @@
         <v>71</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+        <v>166</v>
+      </c>
       <c r="H50" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>20</v>
@@ -2944,7 +2975,7 @@
         <v>11</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>13</v>
@@ -2952,19 +2983,19 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>13</v>
@@ -2972,10 +3003,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>16</v>
@@ -2984,7 +3015,7 @@
         <v>62</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>13</v>
@@ -2992,17 +3023,16 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B54" s="1"/>
+        <v>175</v>
+      </c>
       <c r="C54" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>13</v>
@@ -3010,19 +3040,19 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>13</v>
@@ -3030,17 +3060,16 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>13</v>
@@ -3048,23 +3077,22 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B57" s="1"/>
+        <v>183</v>
+      </c>
       <c r="C57" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>13</v>
@@ -3072,19 +3100,19 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>13</v>
@@ -3092,19 +3120,19 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>13</v>
@@ -3112,19 +3140,19 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>13</v>
@@ -3132,32 +3160,30 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+        <v>96</v>
+      </c>
       <c r="H61" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>16</v>
@@ -3172,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>29</v>
@@ -3180,10 +3206,10 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>16</v>
@@ -3192,13 +3218,13 @@
         <v>62</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>29</v>
@@ -3206,10 +3232,10 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>16</v>
@@ -3220,18 +3246,16 @@
       <c r="E64" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>20</v>
@@ -3240,13 +3264,13 @@
         <v>49</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>29</v>
@@ -3254,10 +3278,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>20</v>
@@ -3266,13 +3290,13 @@
         <v>49</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>29</v>
@@ -3280,54 +3304,50 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+        <v>177</v>
+      </c>
       <c r="H67" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+        <v>209</v>
+      </c>
       <c r="H68" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>20</v>
@@ -3336,7 +3356,7 @@
         <v>62</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>27</v>
@@ -3347,19 +3367,19 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>13</v>
@@ -3367,41 +3387,39 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+        <v>96</v>
+      </c>
       <c r="H71" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>29</v>
@@ -3409,19 +3427,19 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>13</v>
@@ -3429,19 +3447,19 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>13</v>
@@ -3449,32 +3467,30 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+        <v>226</v>
+      </c>
       <c r="H75" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>10</v>
@@ -3485,18 +3501,16 @@
       <c r="E76" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>16</v>
@@ -3505,13 +3519,13 @@
         <v>21</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>29</v>
@@ -3519,10 +3533,10 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>10</v>
@@ -3537,7 +3551,7 @@
         <v>27</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>29</v>
@@ -3545,10 +3559,10 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>20</v>
@@ -3557,20 +3571,18 @@
         <v>11</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+        <v>236</v>
+      </c>
       <c r="H79" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>20</v>
@@ -3587,7 +3599,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>58</v>
@@ -3599,17 +3611,15 @@
         <v>49</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+        <v>240</v>
+      </c>
       <c r="H81" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>65</v>
@@ -3623,18 +3633,16 @@
       <c r="E82" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>20</v>
@@ -3643,29 +3651,27 @@
         <v>11</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+        <v>236</v>
+      </c>
       <c r="H83" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>13</v>
@@ -3673,25 +3679,25 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>13</v>
@@ -3699,10 +3705,10 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>20</v>
@@ -3713,55 +3719,51 @@
       <c r="E86" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+        <v>178</v>
+      </c>
       <c r="H87" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>29</v>
@@ -3769,23 +3771,22 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B89" s="1"/>
+        <v>253</v>
+      </c>
       <c r="C89" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>29</v>
@@ -3793,23 +3794,22 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B90" s="1"/>
+        <v>255</v>
+      </c>
       <c r="C90" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>29</v>
@@ -3817,23 +3817,22 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B91" s="1"/>
+        <v>257</v>
+      </c>
       <c r="C91" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>29</v>
@@ -3841,23 +3840,22 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B92" s="1"/>
+        <v>258</v>
+      </c>
       <c r="C92" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>29</v>
@@ -3865,25 +3863,25 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>29</v>
@@ -3891,22 +3889,22 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>13</v>
@@ -3914,25 +3912,25 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>13</v>
@@ -3940,10 +3938,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>16</v>
@@ -3952,20 +3950,18 @@
         <v>11</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
+        <v>268</v>
+      </c>
       <c r="H96" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>20</v>
@@ -3980,7 +3976,7 @@
         <v>27</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>13</v>
@@ -3988,10 +3984,10 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>16</v>
@@ -4000,13 +3996,13 @@
         <v>62</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>13</v>
@@ -4014,10 +4010,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>10</v>
@@ -4026,13 +4022,13 @@
         <v>49</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>13</v>
@@ -4040,10 +4036,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>16</v>
@@ -4052,13 +4048,13 @@
         <v>49</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>13</v>
@@ -4066,10 +4062,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>10</v>
@@ -4078,13 +4074,13 @@
         <v>49</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>13</v>
@@ -4092,23 +4088,22 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B102" s="1"/>
+        <v>283</v>
+      </c>
       <c r="C102" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>13</v>
@@ -4116,25 +4111,19 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>13</v>
@@ -4142,25 +4131,25 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>290</v>
+        <v>166</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>157</v>
+        <v>292</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>13</v>
@@ -4168,19 +4157,25 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>235</v>
+        <v>295</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>13</v>
@@ -4188,41 +4183,39 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
+        <v>236</v>
+      </c>
       <c r="H106" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>13</v>
@@ -4230,25 +4223,19 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>13</v>
@@ -4256,25 +4243,25 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>100</v>
+        <v>306</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>108</v>
+        <v>307</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>13</v>
@@ -4282,25 +4269,25 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>307</v>
+        <v>109</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>13</v>
@@ -4308,22 +4295,25 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>13</v>
@@ -4331,22 +4321,25 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>309</v>
+        <v>109</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>13</v>
@@ -4354,25 +4347,25 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>13</v>
@@ -4380,25 +4373,25 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>13</v>
@@ -4406,25 +4399,22 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>13</v>
@@ -4432,25 +4422,22 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>108</v>
+        <v>321</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>13</v>
@@ -4458,27 +4445,93 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H117" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H120" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data/survey.xlsx
+++ b/data/survey.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="CoE IE Questions Database ec23b" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="354">
   <si>
     <t>Question</t>
   </si>
@@ -28,13 +28,19 @@
     <t>Sub-category</t>
   </si>
   <si>
+    <t>GroupID</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>Recommended for Strive</t>
+  </si>
+  <si>
     <t>Main or Nested Question</t>
   </si>
   <si>
     <t>Link the to the main question</t>
-  </si>
-  <si>
-    <t>Recommended for Strive</t>
   </si>
   <si>
     <t>How has your business offering changed in the last [XX] months? (Select all that apply)</t>
@@ -45,10 +51,11 @@
 - Both new and improved offerings
 - No changes made
 - Reduced offerings
-- Don't know / Prefer not to say</t>
-  </si>
-  <si>
-    <t>Single choice</t>
+- Other (please specify)
+- Don't know / Prefer not to say</t>
+  </si>
+  <si>
+    <t>Multiple-choice</t>
   </si>
   <si>
     <t>Growth &amp; work opportunities</t>
@@ -70,10 +77,44 @@
 - Prefer not to say</t>
   </si>
   <si>
-    <t>Multiple-choice</t>
+    <t>Single choice</t>
   </si>
   <si>
     <t>Other growth</t>
+  </si>
+  <si>
+    <t>Have you experienced any of the following events related to your business [since the last time we spoke/since engaging with XXX company/service]? (Select all that apply)</t>
+  </si>
+  <si>
+    <t>- Equipment breakdown
+- Supply chain disruption
+- Inventory loss
+- Customer loss
+- Unexpected price changes
+- Property damage
+- Theft or fraud
+- Employee injury/illness
+- Other (please specify)
+- No, none
+- Don’t know / Prefer not to say</t>
+  </si>
+  <si>
+    <t>Resilience</t>
+  </si>
+  <si>
+    <t>Shocks</t>
+  </si>
+  <si>
+    <t>Shock</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Did you face a financial loss due to? (https://www.notion.so/Did-you-face-a-financial-loss-due-to-144d10e1ec87806bb02bc120871622c7?pvs=21), How did you respond to {0}? (https://www.notion.so/How-did-you-respond-to-0-144d10e1ec878062affbdcfd9a49fb17?pvs=21)</t>
   </si>
   <si>
     <t>How long did this shock last?</t>
@@ -91,13 +132,7 @@
     <t>Likert-scale/Range</t>
   </si>
   <si>
-    <t>Resilience</t>
-  </si>
-  <si>
     <t>Resilience outcomes</t>
-  </si>
-  <si>
-    <t>Main</t>
   </si>
   <si>
     <t>How long did the impact of the shock last? (https://www.notion.so/How-long-did-the-impact-of-the-shock-last-c5a9a448d58d4043b3198021e96e9aeb?pvs=21)</t>
@@ -122,10 +157,33 @@
     <t>How long did this shock last? (https://www.notion.so/How-long-did-this-shock-last-305b547bf51c464d8df1848891c573d1?pvs=21)</t>
   </si>
   <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>What measures did you use to cope with the shock?</t>
+    <t>Did you face a financial loss due to?</t>
+  </si>
+  <si>
+    <t>- Yes
+- No
+- Don’t know / Prefer not to say</t>
+  </si>
+  <si>
+    <t>Have you experienced any of the following events related to your business [since the last time we spoke/since engaging with XXX company/service]? (Select all that apply) (https://www.notion.so/Have-you-experienced-any-of-the-following-events-related-to-your-business-since-the-last-time-we-sp-144d10e1ec87809f8bd0ce14470aa0e1?pvs=21), How much did you lose due to this? (https://www.notion.so/How-much-did-you-lose-due-to-this-144d10e1ec87809b9027f447be780df3?pvs=21)</t>
+  </si>
+  <si>
+    <t>How much did you lose due to this?</t>
+  </si>
+  <si>
+    <t>[Insert context appropriate range]
+- Less than [local amount 1]
+- [Local amount 1] to [local amount 2]
+- [Local amount 2] to [local amount 3]
+- [Local amount 3] to [local amount 4]
+- More than [local amount 4]
+- Don't know / Prefer not to say</t>
+  </si>
+  <si>
+    <t>Did you face a financial loss due to? (https://www.notion.so/Did-you-face-a-financial-loss-due-to-144d10e1ec87806bb02bc120871622c7?pvs=21)</t>
+  </si>
+  <si>
+    <t>What measures did you use to cope with the shock? (Select all that apply)</t>
   </si>
   <si>
     <t>- Used personal savings
@@ -143,7 +201,10 @@
     <t>Coping mechanisms</t>
   </si>
   <si>
-    <t>[If borrowed money] Who did you borrow money from? (https://www.notion.so/If-borrowed-money-Who-did-you-borrow-money-from-5d492c099ebd4d74935aca7d061775fe?pvs=21), What single measure helped you cope the most with this shock? (https://www.notion.so/What-single-measure-helped-you-cope-the-most-with-this-shock-9178cbfc419443c4ba6f2bb654d2756a?pvs=21)</t>
+    <t>Measures</t>
+  </si>
+  <si>
+    <t>[If borrowed money] Who did you borrow money from? (Select all that apply) (https://www.notion.so/If-borrowed-money-Who-did-you-borrow-money-from-Select-all-that-apply-5d492c099ebd4d74935aca7d061775fe?pvs=21), What single measure helped you cope the most with this shock? (https://www.notion.so/What-single-measure-helped-you-cope-the-most-with-this-shock-9178cbfc419443c4ba6f2bb654d2756a?pvs=21)</t>
   </si>
   <si>
     <t>What single measure helped you cope the most with this shock?</t>
@@ -152,10 +213,10 @@
     <t>Coping mechanisms, Women's economic empowerment</t>
   </si>
   <si>
-    <t>What measures did you use to cope with the shock? (https://www.notion.so/What-measures-did-you-use-to-cope-with-the-shock-c63d4d6d86ce4f7b8f3375a6254aa3cc?pvs=21)</t>
-  </si>
-  <si>
-    <t>[If borrowed money] Who did you borrow money from?</t>
+    <t>What measures did you use to cope with the shock? (Select all that apply) (https://www.notion.so/What-measures-did-you-use-to-cope-with-the-shock-Select-all-that-apply-c63d4d6d86ce4f7b8f3375a6254aa3cc?pvs=21)</t>
+  </si>
+  <si>
+    <t>[If borrowed money] Who did you borrow money from? (Select all that apply)</t>
   </si>
   <si>
     <t>- Bank or financial institution
@@ -176,6 +237,9 @@
 - Somewhat pessimistic
 - Very pessimistic
 - Don't know / Prefer not to say</t>
+  </si>
+  <si>
+    <t>Optimism</t>
   </si>
   <si>
     <t xml:space="preserve">If you needed [context adjusted amount] within 30 days to handle an unexpected expense (like equipment repair, medical emergency, or urgent stock replacement), what would be your main source for this money? </t>
@@ -192,6 +256,9 @@
 - Don't know / Prefer not to say</t>
   </si>
   <si>
+    <t>Coping</t>
+  </si>
+  <si>
     <t>How easy or difficult would it be to come up with this money? (https://www.notion.so/How-easy-or-difficult-would-it-be-to-come-up-with-this-money-27db81e143ad4197a7e6e4604bf2d741?pvs=21)</t>
   </si>
   <si>
@@ -299,6 +366,9 @@
     <t>Hardware adoption</t>
   </si>
   <si>
+    <t>Techuse</t>
+  </si>
+  <si>
     <t>Over the last 9 months, since watching Grab’s training content, have you used a laptop, desktop computer and/or tablet for your business? Note, this does not include mobile phone usage  (https://www.notion.so/Over-the-last-9-months-since-watching-Grab-s-training-content-have-you-used-a-laptop-desktop-comp-135d10e1ec8780cc9af3e5e7726e958a?pvs=21)</t>
   </si>
   <si>
@@ -323,12 +393,12 @@
     <t>Work creation</t>
   </si>
   <si>
-    <t>In the last [XX] months, have you kept track of your regular business expenses (like rent, utilities, supplies, or transportation) in any kind of budget or spending plan? (Select all that apply)</t>
+    <t>In the last [XX] months, have you kept track of your regular business expenses (like rent, utilities, supplies, or transportation) in any kind of budget or spending plan?</t>
   </si>
   <si>
     <t>- Yes, I keep a detailed written/digital budget
 - Yes, I track expenses but not in a formal budget
-- No, I don't currently track expenses
+- No, I don't currently track expenses systematically
 - Other (please specify)
 - Don't know / Prefer not to say</t>
   </si>
@@ -342,15 +412,10 @@
     <t>Over the last [XX] months, have you made use of digital social media for marketing purposes? (e.g., Facebook, WhatsApp, Twitter, LinkedIn)</t>
   </si>
   <si>
-    <t>- Yes
-- No
-- Don’t know / Prefer not to say</t>
-  </si>
-  <si>
     <t>Marketing</t>
   </si>
   <si>
-    <t>Please select all of the following management practices that you have started doing in your business in the last [XX time period] (Select all that apply)</t>
+    <t>Please select all of the following practices that you have started doing in your business in the last [XX time period] (Select all that apply)</t>
   </si>
   <si>
     <t>- Formally registered my business
@@ -420,10 +485,10 @@
     <t>Cybersecurity practices, Digital tool adoption (general), Financial management, HR practices, Hardware adoption, Marketing, Record Keeping</t>
   </si>
   <si>
-    <t>Thinking about the digital tools/technology you’ve introduced in your business over the last [XX] months, how much do you estimate this adoption has decreased your day-to-day business cost by?  (https://www.notion.so/Thinking-about-the-digital-tools-technology-you-ve-introduced-in-your-business-over-the-last-XX-mo-135d10e1ec87809a9735fac06fd3aa17?pvs=21), [If none] What prevents you from using digital tools and services? (https://www.notion.so/If-none-What-prevents-you-from-using-digital-tools-and-services-137d10e1ec87803f9c39dbe641061df4?pvs=21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thinking about the digital tools/technology you’ve introduced in your business over the last [XX] months, how much do you estimate this adoption has decreased your day-to-day business cost by? </t>
+    <t>Thinking about the digital tools/technology you’ve introduced in your business over the last [XX] months, what is your best estimate of how this adoption changed your day-to-day business costs?  (https://www.notion.so/Thinking-about-the-digital-tools-technology-you-ve-introduced-in-your-business-over-the-last-XX-mo-135d10e1ec87809a9735fac06fd3aa17?pvs=21), [If none] What prevents you from using digital tools and services? (Select all that apply) (https://www.notion.so/If-none-What-prevents-you-from-using-digital-tools-and-services-Select-all-that-apply-137d10e1ec87803f9c39dbe641061df4?pvs=21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thinking about the digital tools/technology you’ve introduced in your business over the last [XX] months, what is your best estimate of how this adoption changed your day-to-day business costs? </t>
   </si>
   <si>
     <t>- Costs actually increased
@@ -444,13 +509,11 @@
     <t>Which of the following technologies does your business currently use? (Select all that apply) (https://www.notion.so/Which-of-the-following-technologies-does-your-business-currently-use-Select-all-that-apply-3f8b9d53545f4cd5ae9e90390d82f0e4?pvs=21)</t>
   </si>
   <si>
-    <t>Does your business have a line of credit or one or more loans from a financial institution, such as a bank, a micro-lender, or other types of lenders? </t>
-  </si>
-  <si>
-    <t>- Yes, a loan only
-- Yes, a line of credit only
-- Yes, both a loan and line of credit
-- No, neither
+    <t>Does your business have one or more loans from a financial institution, such as a bank, a micro-lender, or other types of lenders? </t>
+  </si>
+  <si>
+    <t>- Yes
+- No
 - Don't know / Prefer not to say</t>
   </si>
   <si>
@@ -460,22 +523,13 @@
     <t>Credit adoption</t>
   </si>
   <si>
-    <t>In what year was this most recent line of credit or loan approved?  (https://www.notion.so/In-what-year-was-this-most-recent-line-of-credit-or-loan-approved-125d10e1ec87808bb67ad1199a22c90d?pvs=21), What was its value at the time of approval?  (https://www.notion.so/What-was-its-value-at-the-time-of-approval-125d10e1ec8780fb8ee2f05051666a58?pvs=21), [If loan payment selected] Thinking about this loan repayment to [financial institution], is it: (https://www.notion.so/If-loan-payment-selected-Thinking-about-this-loan-repayment-to-financial-institution-is-it-137d10e1ec87809aa237e0678262c9a5?pvs=21), [If loan taken out] What did you need the money for? (Select all that apply) (https://www.notion.so/If-loan-taken-out-What-did-you-need-the-money-for-Select-all-that-apply-149d10e1ec87800197bede905d43ae98?pvs=21), [If no loan taken out] Why haven't you borrowed money for your business? (Select all that apply) (https://www.notion.so/If-no-loan-taken-out-Why-haven-t-you-borrowed-money-for-your-business-Select-all-that-apply-149d10e1ec878030b585d9804dd43d5c?pvs=21)</t>
-  </si>
-  <si>
-    <t>In what year was this most recent line of credit or loan approved? </t>
-  </si>
-  <si>
-    <t>[Enter year]</t>
-  </si>
-  <si>
-    <t>Numeric</t>
-  </si>
-  <si>
-    <t>Did this financing require collateral?  (https://www.notion.so/Did-this-financing-require-collateral-125d10e1ec878084bd30fc827b04ed5a?pvs=21), What type of collateral was required?  (https://www.notion.so/What-type-of-collateral-was-required-125d10e1ec8780c387e2e9b67dc96fa9?pvs=21), What was the approximate value of the collateral required?  (https://www.notion.so/What-was-the-approximate-value-of-the-collateral-required-125d10e1ec8780fea95bcc64bd57ed17?pvs=21), Does your business have a line of credit or one or more loans from a financial institution, such as a bank, a micro-lender, or other types of lenders?  (https://www.notion.so/Does-your-business-have-a-line-of-credit-or-one-or-more-loans-from-a-financial-institution-such-as--125d10e1ec8780259a23c0544f55d939?pvs=21)</t>
-  </si>
-  <si>
-    <t>What was its value at the time of approval? </t>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>In what year was this most recent line of credit or loan approved?  (https://www.notion.so/In-what-year-was-this-most-recent-line-of-credit-or-loan-approved-125d10e1ec87808bb67ad1199a22c90d?pvs=21), [If loan] What was its value at the time of approval?  (https://www.notion.so/If-loan-What-was-its-value-at-the-time-of-approval-125d10e1ec8780fb8ee2f05051666a58?pvs=21), [If loan] Thinking about this loan repayment to [financial institution], is it: (https://www.notion.so/If-loan-Thinking-about-this-loan-repayment-to-financial-institution-is-it-137d10e1ec87809aa237e0678262c9a5?pvs=21), [If loan] What did you need the money for? (Select all that apply) (https://www.notion.so/If-loan-What-did-you-need-the-money-for-Select-all-that-apply-149d10e1ec87800197bede905d43ae98?pvs=21), [If no loan] Why haven't you borrowed money for your business? (Select all that apply) (https://www.notion.so/If-no-loan-Why-haven-t-you-borrowed-money-for-your-business-Select-all-that-apply-149d10e1ec878030b585d9804dd43d5c?pvs=21)</t>
+  </si>
+  <si>
+    <t>[If loan] What was its value at the time of approval? </t>
   </si>
   <si>
     <t>[Adjust range amounts to context] 
@@ -487,7 +541,7 @@
 - Don't know / Prefer not to say</t>
   </si>
   <si>
-    <t>Does your business have a line of credit or one or more loans from a financial institution, such as a bank, a micro-lender, or other types of lenders?  (https://www.notion.so/Does-your-business-have-a-line-of-credit-or-one-or-more-loans-from-a-financial-institution-such-as--125d10e1ec8780259a23c0544f55d939?pvs=21)</t>
+    <t>Does your business have one or more loans from a financial institution, such as a bank, a micro-lender, or other types of lenders?  (https://www.notion.so/Does-your-business-have-one-or-more-loans-from-a-financial-institution-such-as-a-bank-a-micro-lend-125d10e1ec8780259a23c0544f55d939?pvs=21)</t>
   </si>
   <si>
     <t>How do you manage your business' finances? (Select all that apply)</t>
@@ -625,12 +679,47 @@
 - Don't know / Prefer not to say</t>
   </si>
   <si>
+    <t>[If loan] Thinking about this loan repayment to [financial institution], is it:</t>
+  </si>
+  <si>
+    <t>- A major burden
+- Somewhat of a burden
+- Not a burden at all
+- Don't know / Prefer not to say</t>
+  </si>
+  <si>
+    <t>[If loan] What did you need the money for? (Select all that apply)</t>
+  </si>
+  <si>
+    <t>- Business needs (equipment, stock, expansion)
+- Education or training
+- Emergency expenses
+- Household items or appliances
+- Medical or health expenses
+- Property (buying, building, renovating)
+- Transport or vehicles
+- We haven't borrowed money
+- Other (please specify)
+- Don't know / Prefer not to say</t>
+  </si>
+  <si>
+    <t>[If no loan] Why haven't you borrowed money for your business? (Select all that apply)</t>
+  </si>
+  <si>
+    <t>- Can manage with current resources
+- Don't know how or where to borrow
+- Don't need to borrow right now
+- Don't trust lenders
+- High interest rates
+- Lack required documents
+- No assets for security/collateral
+- Previous loan application rejected
+- Worried about repayment
+- Other (please specify)
+- Don't know / Prefer not to say</t>
+  </si>
+  <si>
     <t>Has your approach to record-keeping changed since the [program]/ in the past [XX] months?</t>
-  </si>
-  <si>
-    <t>- Yes
-- No
-- Don't know / Prefer not to say</t>
   </si>
   <si>
     <t>Adoption of business practices, Resilience</t>
@@ -724,7 +813,7 @@
     <t>Insurance</t>
   </si>
   <si>
-    <t>Which TWO metrics do you use most to track your business performance?</t>
+    <t>Which TWO metrics do you use most to track your business performance? (Select two)</t>
   </si>
   <si>
     <t>- Cash in hand
@@ -736,10 +825,13 @@
 - Don't know / Prefer not to say</t>
   </si>
   <si>
-    <t>How has your main business metric changed compared to [XX] months ago? (https://www.notion.so/How-has-your-main-business-metric-changed-compared-to-XX-months-ago-12ad10e1ec87806083ecc8c112fca604?pvs=21)</t>
-  </si>
-  <si>
-    <t>How has your main business metric changed compared to [XX] months ago?</t>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>How have your main business metrics changed compared to [XX] months ago? (https://www.notion.so/How-have-your-main-business-metrics-changed-compared-to-XX-months-ago-12ad10e1ec87806083ecc8c112fca604?pvs=21)</t>
+  </si>
+  <si>
+    <t>How have your main business metrics changed compared to [XX] months ago?</t>
   </si>
   <si>
     <t>- Increased a lot
@@ -750,7 +842,7 @@
 - Don't Know / Prefer not to say</t>
   </si>
   <si>
-    <t>Which TWO metrics do you use most to track your business performance? (https://www.notion.so/Which-TWO-metrics-do-you-use-most-to-track-your-business-performance-12ad10e1ec878031a058d5d763ea4ba4?pvs=21), [If business grew] How much of your business growth/improvement in the last [XX] months would you say is due to support from [Company/service]? (https://www.notion.so/If-business-grew-How-much-of-your-business-growth-improvement-in-the-last-XX-months-would-you-say-19ad10e1ec8780d9860bffe62ff1fdbb?pvs=21)</t>
+    <t>Which TWO metrics do you use most to track your business performance? (Select two) (https://www.notion.so/Which-TWO-metrics-do-you-use-most-to-track-your-business-performance-Select-two-12ad10e1ec878031a058d5d763ea4ba4?pvs=21), [If business grew] How much of your business growth/improvement in the last [XX] months would you say is due to support from [Company/service]? (https://www.notion.so/If-business-grew-How-much-of-your-business-growth-improvement-in-the-last-XX-months-would-you-say-19ad10e1ec8780d9860bffe62ff1fdbb?pvs=21)</t>
   </si>
   <si>
     <t>Thinking about your typical month, what is your business revenue (total sales before any costs)?</t>
@@ -831,7 +923,7 @@
     <t>Type of intervention/attribution</t>
   </si>
   <si>
-    <t>Have you noticed any changes in your ability to make decisions in the household and the community?</t>
+    <t>Have you noticed any changes in your ability to make decisions in the household and the community? (Select all that apply)</t>
   </si>
   <si>
     <t>- Ability to make decisions in household has increased
@@ -844,10 +936,39 @@
     <t>Women's economic empowerment</t>
   </si>
   <si>
+    <t>Decisions</t>
+  </si>
+  <si>
+    <t>For which types of situations are you more able to make decisions within your household or community? (https://www.notion.so/For-which-types-of-situations-are-you-more-able-to-make-decisions-within-your-household-or-community-137d10e1ec878051bbb6f7dc6a3a2fe0?pvs=21)</t>
+  </si>
+  <si>
     <t>For which types of situations are you more able to make decisions within your household or community?</t>
   </si>
   <si>
+    <t>Have you noticed any changes in your ability to make decisions in the household and the community? (Select all that apply) (https://www.notion.so/Have-you-noticed-any-changes-in-your-ability-to-make-decisions-in-the-household-and-the-community--137d10e1ec878096beeef91e3c3c888c?pvs=21)</t>
+  </si>
+  <si>
+    <t>To what extent do you have control over your business finances?</t>
+  </si>
+  <si>
+    <t>- Complete control
+- Significant control
+- Moderate control
+- Limited control
+- No control
+- Don't know / Prefer not to say</t>
+  </si>
+  <si>
     <t>Could you tell us more about how your quality of life has changed?</t>
+  </si>
+  <si>
+    <t>Feedback, Social and gender outcomes</t>
+  </si>
+  <si>
+    <t>Household impacts, Women's economic empowerment</t>
+  </si>
+  <si>
+    <t>Life</t>
   </si>
   <si>
     <t>Has your quality of life changed because of MESH offerings? (https://www.notion.so/Has-your-quality-of-life-changed-because-of-MESH-offerings-137d10e1ec87808c8cfada48366d05c2?pvs=21)</t>
@@ -903,7 +1024,7 @@
 - Don't know / Prefer not to say</t>
   </si>
   <si>
-    <t>[If none] What prevents you from using digital tools and services?</t>
+    <t>[If none] What prevents you from using digital tools and services? (Select all that apply)</t>
   </si>
   <si>
     <t>- Can't afford the cost
@@ -917,7 +1038,10 @@
 - Don't know / Prefer not to say</t>
   </si>
   <si>
-    <t>Do you use any of the following forms of digital financial services?</t>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>Do you use any of the following forms of digital financial services? (Select all that apply)</t>
   </si>
   <si>
     <t>- ATM/payment cards
@@ -944,7 +1068,7 @@
 - Don't know / Prefer not to say</t>
   </si>
   <si>
-    <t>Rate your knowledge of [or skill in] the [course topic eg. marketing/finance/people management] before the course. </t>
+    <t>Rate your knowledge of [or skill in] the [course topic eg. marketing/finance/people management] before the course.</t>
   </si>
   <si>
     <t>- No knowledge
@@ -958,16 +1082,19 @@
     <t>Digital and operational capabilities, Entrepreneurial and/or business capabilities, Financial capabilities</t>
   </si>
   <si>
-    <t>Rate your knowledge of [or skill in] the [course topic eg. marketing/finance/people management] now, after the course.  (https://www.notion.so/Rate-your-knowledge-of-or-skill-in-the-course-topic-eg-marketing-finance-people-management-now--137d10e1ec878051963dea81eec1f425?pvs=21)</t>
-  </si>
-  <si>
-    <t>Rate your knowledge of [or skill in] the [course topic eg. marketing/finance/people management] now, after the course. </t>
-  </si>
-  <si>
-    <t>Rate your knowledge of [or skill in] the [course topic eg. marketing/finance/people management] before the course.  (https://www.notion.so/Rate-your-knowledge-of-or-skill-in-the-course-topic-eg-marketing-finance-people-management-befo-137d10e1ec878023b4d4d92825708096?pvs=21)</t>
-  </si>
-  <si>
-    <t>How relevant is [Company product/service] to your current work? </t>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Rate your knowledge of [or skill in] the [course topic eg. marketing/finance/people management] now, after the course. (https://www.notion.so/Rate-your-knowledge-of-or-skill-in-the-course-topic-eg-marketing-finance-people-management-now--137d10e1ec878051963dea81eec1f425?pvs=21)</t>
+  </si>
+  <si>
+    <t>Rate your knowledge of [or skill in] the [course topic eg. marketing/finance/people management] now, after the course.</t>
+  </si>
+  <si>
+    <t>Rate your knowledge of [or skill in] the [course topic eg. marketing/finance/people management] before the course. (https://www.notion.so/Rate-your-knowledge-of-or-skill-in-the-course-topic-eg-marketing-finance-people-management-befo-137d10e1ec878023b4d4d92825708096?pvs=21)</t>
+  </si>
+  <si>
+    <t>How relevant is [Company product/service] to your current work?</t>
   </si>
   <si>
     <t>- Not at all relevant
@@ -995,16 +1122,6 @@
     <t>Business Sector</t>
   </si>
   <si>
-    <t>To what extent has [Company/service] contributed to your businesses' use of digital tools and services?</t>
-  </si>
-  <si>
-    <t>- A lot of help
-- Some help
-- Very little help
-- No help at all
-- Don't know / Prefer not to say</t>
-  </si>
-  <si>
     <t>Have you applied what you have learned to the business?</t>
   </si>
   <si>
@@ -1077,34 +1194,6 @@
     <t>In the last [XX] months, have you adopted any new strategies to cope with potential business shocks?</t>
   </si>
   <si>
-    <t>Have you experienced any of the following events related to your business [since the last time we spoke/since engaging with XXX company/service]? (Select all that apply)</t>
-  </si>
-  <si>
-    <t>- Equipment breakdown
-- Supply chain disruption
-- Inventory loss
-- Customer loss
-- Unexpected price changes
-- Property damage
-- Theft or fraud
-- Employee injury/illness
-- Other (please specify)
-- No, none
-- Don’t know / Prefer not to say</t>
-  </si>
-  <si>
-    <t>Shocks</t>
-  </si>
-  <si>
-    <t>Did you face a financial loss due to? (https://www.notion.so/Did-you-face-a-financial-loss-due-to-144d10e1ec87806bb02bc120871622c7?pvs=21), How did you respond to {0}? (https://www.notion.so/How-did-you-respond-to-0-144d10e1ec878062affbdcfd9a49fb17?pvs=21)</t>
-  </si>
-  <si>
-    <t>Did you face a financial loss due to?</t>
-  </si>
-  <si>
-    <t>Have you experienced any of the following events related to your business [since the last time we spoke/since engaging with XXX company/service]? (Select all that apply) (https://www.notion.so/Have-you-experienced-any-of-the-following-events-related-to-your-business-since-the-last-time-we-sp-144d10e1ec87809f8bd0ce14470aa0e1?pvs=21), How much did you lose due to this? (https://www.notion.so/How-much-did-you-lose-due-to-this-144d10e1ec87809b9027f447be780df3?pvs=21)</t>
-  </si>
-  <si>
     <t>Since this time [XX] months/year ago OR since you started using [Company/service], how has the number of your customers changed?</t>
   </si>
   <si>
@@ -1143,24 +1232,18 @@
     <t>How much have your sales changed since using [Company/service]?</t>
   </si>
   <si>
-    <t>To what extent do you have control over your business finances?</t>
-  </si>
-  <si>
-    <t>- Complete control
-- Significant control
-- Moderate control
-- Limited control
-- No control
-- Don't know / Prefer not to say</t>
-  </si>
-  <si>
-    <t>[If loan payment selected] Thinking about this loan repayment to [financial institution], is it:</t>
-  </si>
-  <si>
-    <t>- A major burden
-- Somewhat of a burden
-- Not a burden at all
-- Don't know / Prefer not to say</t>
+    <t>Has your quality of life changed because of [company/service]?</t>
+  </si>
+  <si>
+    <t>- Got much worse
+- Got slightly worse
+- No change
+- Slightly improved
+- Very much improved
+- Don’t know / Prefer not to say</t>
+  </si>
+  <si>
+    <t>Feedback, Household impacts, Women's economic empowerment</t>
   </si>
   <si>
     <t>[Company/service] made it easier to handle business challenges:</t>
@@ -1175,7 +1258,7 @@
 - Don't know / Prefer not to say</t>
   </si>
   <si>
-    <t>In the last 6 months, have you used any services from [Company]?</t>
+    <t>In the last 6 months, have you used any of the following services from [Company]? (Select all that apply)</t>
   </si>
   <si>
     <t>- [Option 1]
@@ -1189,6 +1272,9 @@
     <t>Have you experienced any challenges with [Company]?</t>
   </si>
   <si>
+    <t>Challenges</t>
+  </si>
+  <si>
     <t>[If yes] Could you tell us more about your challenges with [Company]? (https://www.notion.so/If-yes-Could-you-tell-us-more-about-your-challenges-with-Company-4888d54c588e429e91ac66dbe4d11656?pvs=21)</t>
   </si>
   <si>
@@ -1199,6 +1285,9 @@
   </si>
   <si>
     <t>[If 9-10:] What specifically about [Company/program/service] would cause you to recommend it to a friend or family member?</t>
+  </si>
+  <si>
+    <t>Recommend</t>
   </si>
   <si>
     <t>On a scale of 0-10, how likely are you to recommend to a friend or family member, where 0 is not at all likely and 10 is extremely likely? (https://www.notion.so/On-a-scale-of-0-10-how-likely-are-you-to-recommend-to-a-friend-or-family-member-where-0-is-not-at--137d10e1ec8780068313e29eba42ee26?pvs=21)</t>
@@ -1233,6 +1322,9 @@
     <t>How did you change how you run your business?</t>
   </si>
   <si>
+    <t>Change</t>
+  </si>
+  <si>
     <t>Did participating in the [program/intervention/course] change how you run your business day-to-day? (https://www.notion.so/Did-participating-in-the-program-intervention-course-change-how-you-run-your-business-day-to-day-144d10e1ec878084abbafdece25972fa?pvs=21)</t>
   </si>
   <si>
@@ -1259,21 +1351,6 @@
     <t>Closure</t>
   </si>
   <si>
-    <t>How much did you lose due to this?</t>
-  </si>
-  <si>
-    <t>[Insert context appropriate range]
-- Less than [local amount 1]
-- [Local amount 1] to [local amount 2]
-- [Local amount 2] to [local amount 3]
-- [Local amount 3] to [local amount 4]
-- More than [local amount 4]
-- Don't know / Prefer not to say</t>
-  </si>
-  <si>
-    <t>Did you face a financial loss due to? (https://www.notion.so/Did-you-face-a-financial-loss-due-to-144d10e1ec87806bb02bc120871622c7?pvs=21)</t>
-  </si>
-  <si>
     <t>What do you use these digital financial services for? (Select all that apply)</t>
   </si>
   <si>
@@ -1288,13 +1365,16 @@
 - Don't know / Prefer not to say</t>
   </si>
   <si>
-    <t>Do you use any of the following forms of digital financial services? (https://www.notion.so/Do-you-use-any-of-the-following-forms-of-digital-financial-services-143d10e1ec8780658037ef00a22d1c6e?pvs=21)</t>
+    <t>Do you use any of the following forms of digital financial services? (Select all that apply) (https://www.notion.so/Do-you-use-any-of-the-following-forms-of-digital-financial-services-Select-all-that-apply-143d10e1ec8780658037ef00a22d1c6e?pvs=21)</t>
   </si>
   <si>
     <t>Do you discuss your business operations and/or plans with other people?</t>
   </si>
   <si>
     <t>Entrepreneurial and/or business capabilities</t>
+  </si>
+  <si>
+    <t>Discuss</t>
   </si>
   <si>
     <t>[If discusses] Who do you discuss your business plans with? (Select all that apply) (https://www.notion.so/If-discusses-Who-do-you-discuss-your-business-plans-with-Select-all-that-apply-143d10e1ec8780ea97aae2a6901e8305?pvs=21), [If discusses] Do you take their advice? (https://www.notion.so/If-discusses-Do-you-take-their-advice-143d10e1ec8780279f10fc47e39e184c?pvs=21), [If takes advice] Can you tell me about a time when you did take their advice? (https://www.notion.so/If-takes-advice-Can-you-tell-me-about-a-time-when-you-did-take-their-advice-143d10e1ec8780b79441e6df10bbdc0c?pvs=21), Can you tell me about a time
@@ -1363,11 +1443,6 @@
     <t>Adoption of business practices, Growth &amp; work opportunities</t>
   </si>
   <si>
-    <t> What is the frequency of your salary
-  payment? (https://www.notion.so/What-is-the-frequency-of-your-salary-payment-143d10e1ec878097bd93e6b3c684ea4f?pvs=21),  What kind of expenses do you mean by
-  "in-Kind to cover my own expenses"? (https://www.notion.so/What-kind-of-expenses-do-you-mean-by-in-Kind-to-cover-my-own-expenses-143d10e1ec878040b75cd635a55b64e7?pvs=21)</t>
-  </si>
-  <si>
     <t>[If business grew] How much of your business growth/improvement in the last [XX] months would you say is due to support from [Company/service]?</t>
   </si>
   <si>
@@ -1441,21 +1516,6 @@
   </si>
   <si>
     <t>Which types of insurance or financial protection do you currently have? (https://www.notion.so/Which-types-of-insurance-or-financial-protection-do-you-currently-have-14ad10e1ec87809d8388f6d9c3248860?pvs=21)</t>
-  </si>
-  <si>
-    <t>[If loan taken out] What did you need the money for? (Select all that apply)</t>
-  </si>
-  <si>
-    <t>- Business needs (equipment, stock, expansion)
-- Education or training
-- Emergency expenses
-- Household items or appliances
-- Medical or health expenses
-- Property (buying, building, renovating)
-- Transport or vehicles
-- We haven't borrowed money
-- Other (please specify)
-- Don't know / Prefer not to say</t>
   </si>
   <si>
     <t>Which types of insurance or financial protection do you currently have?</t>
@@ -1475,23 +1535,7 @@
     <t>People have these products we have just talked about for different reasons, why do you have it? (https://www.notion.so/People-have-these-products-we-have-just-talked-about-for-different-reasons-why-do-you-have-it-14ad10e1ec8780098aeac0d951f43eed?pvs=21), [If no insurance] There are different reasons for people not having these products. Why don’t you personally have them? (Select all that apply) (https://www.notion.so/If-no-insurance-There-are-different-reasons-for-people-not-having-these-products-Why-don-t-you-per-14ad10e1ec878052806dd6a3a7f5ca71?pvs=21)</t>
   </si>
   <si>
-    <t>[If no loan taken out] Why haven't you borrowed money for your business? (Select all that apply)</t>
-  </si>
-  <si>
-    <t>- Can manage with current resources
-- Don't know how or where to borrow
-- Don't need to borrow right now
-- Don't trust lenders
-- High interest rates
-- Lack required documents
-- No assets for security/collateral
-- Previous loan application rejected
-- Worried about repayment
-- Other (please specify)
-- Don't know / Prefer not to say</t>
-  </si>
-  <si>
-    <t>Did you understand the terms of the contract?</t>
+    <t>[If loan from FSP or company] Did you understand the terms of the contract?</t>
   </si>
   <si>
     <t>- Yes
@@ -1500,39 +1544,16 @@
 - Prefer not to say</t>
   </si>
   <si>
-    <t>Were you given a written contract? (https://www.notion.so/Were-you-given-a-written-contract-149d10e1ec87801085fbf210d2d3d335?pvs=21)</t>
-  </si>
-  <si>
-    <t>Were you given a written contract?</t>
-  </si>
-  <si>
-    <t>In the last [XX] months, where have you borrowed money or gotten credit from? (Select all that apply) (https://www.notion.so/In-the-last-XX-months-where-have-you-borrowed-money-or-gotten-credit-from-Select-all-that-apply-149d10e1ec8780b78057e05c32016bae?pvs=21), Was the contract in the language you understand (even if you cannot read that language)? (https://www.notion.so/Was-the-contract-in-the-language-you-understand-even-if-you-cannot-read-that-language-149d10e1ec87800c8694d73dbba732ca?pvs=21), Did you read the contract or did someone explain it to you before you signed it? (https://www.notion.so/Did-you-read-the-contract-or-did-someone-explain-it-to-you-before-you-signed-it-149d10e1ec878059be28e2a0705d5ea3?pvs=21), Did you understand the terms of the contract? (https://www.notion.so/Did-you-understand-the-terms-of-the-contract-149d10e1ec8780fd8e2dde102fbd1d90?pvs=21)</t>
-  </si>
-  <si>
-    <t>[If no financial record keeping] Why don't you keep financial records?</t>
-  </si>
-  <si>
-    <t>Do you keep financial records? If so, in which forms do you keep financial records? (Select all that apply) (https://www.notion.so/Do-you-keep-financial-records-If-so-in-which-forms-do-you-keep-financial-records-Select-all-that-143d10e1ec8780bc984cd4d70b3fc317?pvs=21)</t>
-  </si>
-  <si>
-    <t>Why do you keep your financial records in that way?</t>
-  </si>
-  <si>
-    <t>Do you keep financial records? If so, in which forms do you keep financial records? (Select all that apply)</t>
-  </si>
-  <si>
-    <t>- Basic notes or notebooks
-- Box or folder of receipts and bills
-- Computer spreadsheets (e.g., Excel)
-- Mobile phone apps or notes
-- Paper ledger or account books
-- Professional accounting software
-- We don't systematically keep financial records
-- Other (please specify)
-- Don't know / Prefer not to say</t>
-  </si>
-  <si>
-    <t>[If no financial record keeping] Why don't you keep financial records? (https://www.notion.so/If-no-financial-record-keeping-Why-don-t-you-keep-financial-records-143d10e1ec87805b8be6dccff2367215?pvs=21), Why do you keep your financial records in that way? (https://www.notion.so/Why-do-you-keep-your-financial-records-in-that-way-143d10e1ec87808abb2bf476177c0af3?pvs=21)</t>
+    <t>Borrow</t>
+  </si>
+  <si>
+    <t>[If loan from FSP or company] Were you given a written contract? (https://www.notion.so/If-loan-from-FSP-or-company-Were-you-given-a-written-contract-149d10e1ec87801085fbf210d2d3d335?pvs=21)</t>
+  </si>
+  <si>
+    <t>[If loan from FSP or company] Were you given a written contract?</t>
+  </si>
+  <si>
+    <t>In the last [XX] months, where have you borrowed money or gotten credit from? (Select all that apply) (https://www.notion.so/In-the-last-XX-months-where-have-you-borrowed-money-or-gotten-credit-from-Select-all-that-apply-149d10e1ec8780b78057e05c32016bae?pvs=21), Was the contract in the language you understand (even if you cannot read that language)? (https://www.notion.so/Was-the-contract-in-the-language-you-understand-even-if-you-cannot-read-that-language-149d10e1ec87800c8694d73dbba732ca?pvs=21), Did you read the contract or did someone explain it to you before you signed it? (https://www.notion.so/Did-you-read-the-contract-or-did-someone-explain-it-to-you-before-you-signed-it-149d10e1ec878059be28e2a0705d5ea3?pvs=21), [If loan from FSP or company] Did you understand the terms of the contract? (https://www.notion.so/If-loan-from-FSP-or-company-Did-you-understand-the-terms-of-the-contract-149d10e1ec8780fd8e2dde102fbd1d90?pvs=21)</t>
   </si>
   <si>
     <t>In the last [XX] months, where have you borrowed money or gotten credit from? (Select all that apply)</t>
@@ -1548,6 +1569,38 @@
 - We haven't borrowed
 - Other (please specify)
 - Don't know / Prefer not to say</t>
+  </si>
+  <si>
+    <t>In the last [XX] months, have you borrowed money or gotten credit for your business?</t>
+  </si>
+  <si>
+    <t>Do you keep financial records? If so, in which forms do you keep financial records? (Select all that apply)</t>
+  </si>
+  <si>
+    <t>- Basic notes or notebooks
+- Box or folder of receipts and bills
+- Computer spreadsheets (e.g., Excel)
+- Mobile phone apps or notes
+- Paper ledger or account books
+- Professional accounting software
+- We don't systematically keep financial records
+- Other (please specify)
+- Don't know / Prefer not to say</t>
+  </si>
+  <si>
+    <t>Records</t>
+  </si>
+  <si>
+    <t>[If no financial record keeping] Why don't you keep financial records? (https://www.notion.so/If-no-financial-record-keeping-Why-don-t-you-keep-financial-records-143d10e1ec87805b8be6dccff2367215?pvs=21), Why do you keep your financial records in that way? (https://www.notion.so/Why-do-you-keep-your-financial-records-in-that-way-143d10e1ec87808abb2bf476177c0af3?pvs=21)</t>
+  </si>
+  <si>
+    <t>Why do you keep your financial records in that way?</t>
+  </si>
+  <si>
+    <t>Do you keep financial records? If so, in which forms do you keep financial records? (Select all that apply) (https://www.notion.so/Do-you-keep-financial-records-If-so-in-which-forms-do-you-keep-financial-records-Select-all-that-143d10e1ec8780bc984cd4d70b3fc317?pvs=21)</t>
+  </si>
+  <si>
+    <t>[If no financial record keeping] Why don't you keep financial records?</t>
   </si>
   <si>
     <t>What tools or services do you currently use to run your business? (Select all that apply)</t>
@@ -1866,2673 +1919,2991 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="G4" s="1">
+        <v>1.0</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
+      <c r="J7" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="G11" s="1">
+        <v>3.0</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3.0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2.0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>106</v>
+        <v>83</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1.0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.0</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" s="1">
+        <v>4.0</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>146</v>
+        <v>117</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3.0</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>149</v>
+        <v>117</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5.0</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>172</v>
+        <v>19</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1.0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>112</v>
+        <v>19</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2.0</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>177</v>
+        <v>200</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1.0</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>96</v>
+        <v>200</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G61" s="1">
+        <v>2.0</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B63" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>196</v>
+        <v>210</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2.0</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>209</v>
+        <v>79</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G68" s="1">
+        <v>3.0</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>27</v>
+        <v>221</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1.0</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="E70" s="1" t="s">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>96</v>
+        <v>229</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1.0</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>217</v>
+        <v>229</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G72" s="1">
+        <v>2.0</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>224</v>
+        <v>38</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>72</v>
+        <v>253</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>54</v>
+        <v>257</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>236</v>
+        <v>89</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>244</v>
+        <v>74</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>54</v>
+        <v>257</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>178</v>
+        <v>266</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1.0</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>252</v>
+        <v>70</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>253</v>
+        <v>269</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>255</v>
+        <v>271</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>256</v>
+        <v>272</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1.0</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>256</v>
+        <v>272</v>
+      </c>
+      <c r="G91" s="1">
+        <v>2.0</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>256</v>
+        <v>277</v>
+      </c>
+      <c r="G92" s="1">
+        <v>2.0</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>261</v>
+        <v>277</v>
+      </c>
+      <c r="G93" s="1">
+        <v>3.0</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
+      </c>
+      <c r="G94" s="1">
+        <v>4.0</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1.0</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>268</v>
+        <v>197</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G96" s="1">
+        <v>2.0</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>270</v>
+        <v>38</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>271</v>
+        <v>285</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1.0</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E99" s="1" t="s">
-        <v>276</v>
+        <v>125</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>277</v>
+        <v>221</v>
+      </c>
+      <c r="G99" s="1">
+        <v>2.0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>279</v>
+        <v>38</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>280</v>
+        <v>297</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1.0</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>282</v>
+        <v>297</v>
+      </c>
+      <c r="G101" s="1">
+        <v>2.0</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>283</v>
+        <v>302</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>284</v>
+        <v>297</v>
+      </c>
+      <c r="G102" s="1">
+        <v>3.0</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>287</v>
+        <v>65</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>288</v>
+        <v>296</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G103" s="1">
+        <v>4.0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>11</v>
+        <v>312</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>236</v>
+        <v>315</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G106" s="1">
+        <v>3.0</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>101</v>
+        <v>326</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>109</v>
+        <v>173</v>
+      </c>
+      <c r="G110" s="1">
+        <v>2.0</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>312</v>
+        <v>173</v>
+      </c>
+      <c r="G111" s="1">
+        <v>1.0</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>109</v>
+        <v>333</v>
+      </c>
+      <c r="G112" s="1">
+        <v>4.0</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>316</v>
+        <v>38</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>317</v>
+        <v>333</v>
+      </c>
+      <c r="G113" s="1">
+        <v>3.0</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>319</v>
+        <v>333</v>
+      </c>
+      <c r="G114" s="1">
+        <v>2.0</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>320</v>
+        <v>339</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>321</v>
+        <v>333</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1.0</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>322</v>
+        <v>340</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>321</v>
+        <v>342</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1.0</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>325</v>
+        <v>342</v>
+      </c>
+      <c r="G117" s="1">
+        <v>2.0</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>317</v>
+        <v>342</v>
+      </c>
+      <c r="G118" s="1">
+        <v>3.0</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
